--- a/giveMeHandBack-end/src/main/java/com/project/givemehand/utils/data.xlsx
+++ b/giveMeHandBack-end/src/main/java/com/project/givemehand/utils/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evadiagne/Desktop/Master 2 MIAGE/Semestre 2/PROJET S2/src/main/java/com/project/givemehand/utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evadiagne/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EABED401-ABC2-CE40-B6A5-CC68C354E580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED46ED7F-E409-BF47-86E7-983849E0CEAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="540" windowWidth="26340" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
